--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -2082,7 +2082,7 @@
     <t>Linns Test Encounter</t>
   </si>
   <si>
-    <t>2025-11-10T13:37:27+00:00</t>
+    <t>2025-11-10T14:08:13+00:00</t>
   </si>
   <si>
     <t>The encounter associated with Linns test.</t>
